--- a/data/toy_dataset_ur_own/toy_dataset_u_prepared.xlsx
+++ b/data/toy_dataset_ur_own/toy_dataset_u_prepared.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaagle-hackathons\MITSUI&amp;CO_Commodity_Prediction_Challenge\code\ares\MITSUI-CO_Commodity_Prediction_Challenge\data\toy_dataset_ur_own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2882C8A-0982-4BE6-AEA7-4A6150C69F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8D09B0-B870-41C5-9E75-BECED1EE5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7C0FCE20-A467-4C27-8345-323FF157CBE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t>date_id</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>LME_CA_Close - US_Stock_CCJ_adj_close</t>
+  </si>
+  <si>
+    <t>label_date_id</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>FX_ZARCHF</t>
+  </si>
+  <si>
+    <t>FX_NOKJPY</t>
+  </si>
+  <si>
+    <t>FX_ZARGBP</t>
+  </si>
+  <si>
+    <t>lagged_test_labels</t>
   </si>
 </sst>
 </file>
@@ -165,8 +183,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380E7372-8C32-4CB0-BC8E-752C91C3CE50}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,698 +516,1774 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2264.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7205</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2570</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3349</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7.8134999999999996E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13.82274</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5.9163E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2228</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7147</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2579</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3327</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.9065999999999997E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13.888146000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.9894999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2250</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7188.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2587</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3362</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.9286999999999996E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13.983675</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.0037E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2202.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7121</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2540</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3354</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7.9284999999999994E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>14.035570999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.9983000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>1903</v>
       </c>
-      <c r="B3">
+      <c r="B8" s="1">
         <v>2427</v>
       </c>
-      <c r="C3">
+      <c r="C8" s="1">
         <v>9538</v>
       </c>
-      <c r="D3">
+      <c r="D8" s="1">
         <v>1923</v>
       </c>
-      <c r="E3">
+      <c r="E8" s="1">
         <v>2632.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7.8924999999999995E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14.01376</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.9503E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>1904</v>
       </c>
-      <c r="B4">
+      <c r="B9" s="1">
         <v>2382.5</v>
       </c>
-      <c r="C4">
+      <c r="C9" s="1">
         <v>9419.5</v>
       </c>
-      <c r="D4">
+      <c r="D9" s="1">
         <v>1957.5</v>
       </c>
-      <c r="E4">
+      <c r="E9" s="1">
         <v>2616.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.9708000000000001E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13.899366000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.9878000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>1905</v>
       </c>
-      <c r="B5">
+      <c r="B10" s="1">
         <v>2412.5</v>
       </c>
-      <c r="C5">
+      <c r="C10" s="1">
         <v>9431.5</v>
       </c>
-      <c r="D5">
+      <c r="D10" s="1">
         <v>1944.5</v>
       </c>
-      <c r="E5">
+      <c r="E10" s="1">
         <v>2619</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.8646999999999995E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13.814825000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5.9532000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>1906</v>
       </c>
-      <c r="B6">
+      <c r="B11" s="1">
         <v>2417.5</v>
       </c>
-      <c r="C6">
+      <c r="C11" s="1">
         <v>9445.5</v>
       </c>
-      <c r="D6">
+      <c r="D11" s="1">
         <v>1981.5</v>
       </c>
-      <c r="E6">
+      <c r="E11" s="1">
         <v>2653.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.8892000000000004E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13.896684</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5.9707000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>1907</v>
       </c>
-      <c r="B7">
+      <c r="B12" s="1">
         <v>2480</v>
       </c>
-      <c r="C7">
+      <c r="C12" s="1">
         <v>9520.5</v>
       </c>
-      <c r="D7">
+      <c r="D12" s="1">
         <v>1977.5</v>
       </c>
-      <c r="E7">
+      <c r="E12" s="1">
         <v>2680</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7.8059000000000003E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14.002330000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.8842999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>1908</v>
       </c>
-      <c r="B8">
+      <c r="B13" s="1">
         <v>2490</v>
       </c>
-      <c r="C8">
+      <c r="C13" s="1">
         <v>9599.5</v>
       </c>
-      <c r="D8">
+      <c r="D13" s="1">
         <v>1989</v>
       </c>
-      <c r="E8">
+      <c r="E13" s="1">
         <v>2705</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7.8377000000000002E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14.037903</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5.8985999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>1909</v>
       </c>
-      <c r="B9">
+      <c r="B14" s="1">
         <v>2528.5</v>
       </c>
-      <c r="C9">
+      <c r="C14" s="1">
         <v>9606.5</v>
       </c>
-      <c r="D9">
+      <c r="D14" s="1">
         <v>1996.5</v>
       </c>
-      <c r="E9">
+      <c r="E14" s="1">
         <v>2765</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7.8280000000000002E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14.030006</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5.9149E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>1910</v>
       </c>
-      <c r="B10">
+      <c r="B15" s="1">
         <v>2489</v>
       </c>
-      <c r="C10">
+      <c r="C15" s="1">
         <v>9577</v>
       </c>
-      <c r="D10">
+      <c r="D15" s="1">
         <v>2004.5</v>
       </c>
-      <c r="E10">
+      <c r="E15" s="1">
         <v>2724.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="F15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7.8412999999999997E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>14.126598</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5.8762000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>1911</v>
       </c>
-      <c r="B11">
+      <c r="B16" s="1">
         <v>2481.5</v>
       </c>
-      <c r="C11">
+      <c r="C16" s="1">
         <v>9447.5</v>
       </c>
-      <c r="D11">
+      <c r="D16" s="1">
         <v>2000</v>
       </c>
-      <c r="E11">
+      <c r="E16" s="1">
         <v>2691.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.9087000000000005E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>14.152998</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5.9367000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>1912</v>
       </c>
-      <c r="B12">
+      <c r="B17" s="1">
         <v>2450</v>
       </c>
-      <c r="C12">
+      <c r="C17" s="1">
         <v>9523.5</v>
       </c>
-      <c r="D12">
+      <c r="D17" s="1">
         <v>1961.5</v>
       </c>
-      <c r="E12">
+      <c r="E17" s="1">
         <v>2676.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7.9031000000000004E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>14.06921</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.9263999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>1913</v>
       </c>
-      <c r="B13">
+      <c r="B18" s="1">
         <v>2471.5</v>
       </c>
-      <c r="C13">
+      <c r="C18" s="1">
         <v>9519.5</v>
       </c>
-      <c r="D13">
+      <c r="D18" s="1">
         <v>1980.5</v>
       </c>
-      <c r="E13">
+      <c r="E18" s="1">
         <v>2710.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7.9866999999999994E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>14.123006999999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5.9364E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>1914</v>
       </c>
-      <c r="B14">
+      <c r="B19" s="1">
         <v>2471.5</v>
       </c>
-      <c r="C14">
+      <c r="C19" s="1">
         <v>9533.5</v>
       </c>
-      <c r="D14">
+      <c r="D19" s="1">
         <v>1974</v>
       </c>
-      <c r="E14">
+      <c r="E19" s="1">
         <v>2693</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.9583000000000001E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>14.083741</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5.9351000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>1915</v>
       </c>
-      <c r="B15">
+      <c r="B20" s="1">
         <v>2456</v>
       </c>
-      <c r="C15">
+      <c r="C20" s="1">
         <v>9500.5</v>
       </c>
-      <c r="D15">
+      <c r="D20" s="1">
         <v>1970</v>
       </c>
-      <c r="E15">
+      <c r="E20" s="1">
         <v>2697.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7.9632999999999995E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>14.091506000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5.9168999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>1916</v>
       </c>
-      <c r="B16">
+      <c r="B21" s="1">
         <v>2463.5</v>
       </c>
-      <c r="C16">
+      <c r="C21" s="1">
         <v>9610</v>
       </c>
-      <c r="D16">
+      <c r="D21" s="1">
         <v>1991</v>
       </c>
-      <c r="E16">
+      <c r="E21" s="1">
         <v>2701.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7.9118999999999995E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>14.162098</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5.9359000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.9484981218522999E-3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-2.8513218171679002E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-4.6751993074160003E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-6.3914379879299996E-4</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
+        <v>3.8234026591291902E-2</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
+        <v>2.73098899172774E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5.7828065001237E-3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-2.4117628673570601E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-7.0519902951155997E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1.8954765802724399E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-3.1852481387654098E-2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-7.6351452244100004E-4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2.5020676574498801E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3.5484637470833001E-3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2.09404259382177E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.0482543229624001E-3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.3836388992915101E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-8.9340591551998003E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-2.2060034597476401E-2</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-5.3936115701922003E-3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4.8353745183174002E-3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-9.0749848976144996E-3</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.7058734357086E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.6997331879344E-3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-2.4617807531771101E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.19433127095384E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.7778971224577997E-3</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>-1.5102361176518701E-2</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <v>-3.30101563460556E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5.6246327213970004E-3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-1.6256271421115E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.1680147783145399E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-9.8950821916339994E-4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.0964039060784201E-2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32">
+        <v>-5.6516703779801801E-2</v>
+      </c>
+      <c r="I32">
+        <v>1.73930491851793E-2</v>
+      </c>
+      <c r="J32">
+        <v>6.2210642016636997E-3</v>
+      </c>
+      <c r="K32">
+        <v>7.9321135707774004E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4.8654004509049997E-3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-7.1128729913843003E-3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1.4279682758342E-3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.1684586820443992E-3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-2.01841775183473E-2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33">
+        <v>2.98368670333123E-2</v>
+      </c>
+      <c r="I33">
+        <v>2.0422970454191001E-3</v>
+      </c>
+      <c r="J33">
+        <v>3.2666908396500598E-2</v>
+      </c>
+      <c r="K33">
+        <v>-1.5732240794862701E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>1910</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.7465886884200999E-3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-2.21842825808952E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.3600960222545999E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-7.1865033211467996E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-1.5420695677146899E-2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.7625041394948901E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4.5729926704817002E-3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4.7832989036606197E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>-2.4000508364290001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>1911</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-1.0492756925402E-3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.06891271049043E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-1.3043250747839999E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-3.8859196587156001E-3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.6628255201626599E-2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.0885308794453E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-1.10848079240317E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5.2410255820795899E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>-0.12787872915287599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>1912</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-1.25961602043734E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9.3087631358288996E-3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.9468909955620008E-3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6.4773058887938996E-3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-2.6216146119265999E-2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
+        <v>3.1005713973479999E-2</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>1913</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-7.3628669420289998E-4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-1.2921115671898E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-5.1370870426034002E-3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-7.9608478006716003E-3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-8.4937448561895994E-3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-2.6081592667053399E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-8.0569133222893E-3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-2.0685592998464998E-3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>-0.14105322010938601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>1914</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-2.2941427513759999E-3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.2897625083538001E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9.9780380299209995E-3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.5673365651541001E-3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.5962381079193998E-3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="1">
+        <v>-1.99178752966284E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-1.33040895609173E-2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-5.5267734981524E-3</v>
+      </c>
+      <c r="K38" s="1">
+        <v>-0.12768791334004101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>1915</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <v>2.43500625914214E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-6.9283279381986002E-3</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6.8053842220976001E-3</v>
+      </c>
+      <c r="K39" s="1">
+        <v>-1.21872616280779E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1">
+        <v>1.25620344286377E-2</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B62" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C62" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F62" t="s">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>1911</v>
       </c>
-      <c r="B21">
+      <c r="B63">
         <v>2481.5</v>
       </c>
-      <c r="C21">
+      <c r="C63">
         <v>9447.5</v>
       </c>
-      <c r="D21">
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63">
         <v>2000</v>
       </c>
-      <c r="E21">
+      <c r="F63">
         <v>2691.5</v>
       </c>
-      <c r="F21" t="b">
+      <c r="G63" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>1912</v>
       </c>
-      <c r="B22">
+      <c r="B64">
         <v>2450</v>
       </c>
-      <c r="C22">
+      <c r="C64">
         <v>9523.5</v>
       </c>
-      <c r="D22">
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64">
         <v>1961.5</v>
       </c>
-      <c r="E22">
+      <c r="F64">
         <v>2676.5</v>
       </c>
-      <c r="F22" t="b">
+      <c r="G64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>1913</v>
       </c>
-      <c r="B23">
+      <c r="B65">
         <v>2471.5</v>
       </c>
-      <c r="C23">
+      <c r="C65">
         <v>9519.5</v>
       </c>
-      <c r="D23">
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65">
         <v>1980.5</v>
       </c>
-      <c r="E23">
+      <c r="F65">
         <v>2710.5</v>
       </c>
-      <c r="F23" t="b">
+      <c r="G65" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>1914</v>
       </c>
-      <c r="B24">
+      <c r="B66">
         <v>2471.5</v>
       </c>
-      <c r="C24">
+      <c r="C66">
         <v>9533.5</v>
       </c>
-      <c r="D24">
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66">
         <v>1974</v>
       </c>
-      <c r="E24">
+      <c r="F66">
         <v>2693</v>
       </c>
-      <c r="F24" t="b">
+      <c r="G66" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>1915</v>
       </c>
-      <c r="B25">
+      <c r="B67">
         <v>2456</v>
       </c>
-      <c r="C25">
+      <c r="C67">
         <v>9500.5</v>
       </c>
-      <c r="D25">
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67">
         <v>1970</v>
       </c>
-      <c r="E25">
+      <c r="F67">
         <v>2697.5</v>
       </c>
-      <c r="F25" t="b">
+      <c r="G67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>1916</v>
       </c>
-      <c r="B26">
+      <c r="B68">
         <v>2463.5</v>
       </c>
-      <c r="C26">
+      <c r="C68">
         <v>9610</v>
       </c>
-      <c r="D26">
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68">
         <v>1991</v>
       </c>
-      <c r="E26">
+      <c r="F68">
         <v>2701.5</v>
       </c>
-      <c r="F26" t="b">
+      <c r="G68" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B73" t="s">
         <v>9</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C73" t="s">
         <v>10</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D73" t="s">
         <v>11</v>
       </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
         <v>17</v>
       </c>
-      <c r="I31" t="s">
+      <c r="G73" t="s">
         <v>18</v>
       </c>
-      <c r="J31" t="s">
+      <c r="H73" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>5.9484981218522999E-3</v>
-      </c>
-      <c r="C32">
-        <v>-2.8513218171679002E-3</v>
-      </c>
-      <c r="D32">
-        <v>-4.6751993074160003E-3</v>
-      </c>
-      <c r="E32">
-        <v>-6.3914379879299996E-4</v>
-      </c>
-      <c r="H32">
-        <v>3.8234026591291902E-2</v>
-      </c>
-      <c r="J32">
-        <v>2.73098899172774E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>5.7828065001237E-3</v>
-      </c>
-      <c r="C33">
-        <v>-2.4117628673570601E-2</v>
-      </c>
-      <c r="D33">
-        <v>-7.0519902951155997E-3</v>
-      </c>
-      <c r="E33">
-        <v>-1.8954765802724399E-2</v>
-      </c>
-      <c r="F33">
-        <v>-3.1852481387654098E-2</v>
-      </c>
-      <c r="G33">
-        <v>-7.6351452244100004E-4</v>
-      </c>
-      <c r="H33">
-        <v>2.5020676574498801E-2</v>
-      </c>
-      <c r="I33">
-        <v>3.5484637470833001E-3</v>
-      </c>
-      <c r="J33">
-        <v>2.09404259382177E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>1.0482543229624001E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.3836388992915101E-2</v>
-      </c>
-      <c r="D34">
-        <v>-8.9340591551998003E-3</v>
-      </c>
-      <c r="E34">
-        <v>-2.2060034597476401E-2</v>
-      </c>
-      <c r="G34">
-        <v>-5.3936115701922003E-3</v>
-      </c>
-      <c r="H34">
-        <v>4.8353745183174002E-3</v>
-      </c>
-      <c r="I34">
-        <v>-9.0749848976144996E-3</v>
-      </c>
-      <c r="J34">
-        <v>1.7058734357086E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>1.6997331879344E-3</v>
-      </c>
-      <c r="C35">
-        <v>-2.4617807531771101E-2</v>
-      </c>
-      <c r="D35">
-        <v>1.19433127095384E-2</v>
-      </c>
-      <c r="E35">
-        <v>4.7778971224577997E-3</v>
-      </c>
-      <c r="H35">
-        <v>-1.5102361176518701E-2</v>
-      </c>
-      <c r="J35">
-        <v>-3.30101563460556E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
+      <c r="I73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1829</v>
+      </c>
+      <c r="D74">
+        <v>1.7868029037757201E-2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74">
+        <v>2.1768031374754001E-3</v>
+      </c>
+      <c r="I74">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1830</v>
+      </c>
+      <c r="B75">
+        <v>2.5602670696010998E-3</v>
+      </c>
+      <c r="C75">
+        <v>-4.5917558332622E-3</v>
+      </c>
+      <c r="D75">
+        <v>-1.7757971984314999E-3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75">
+        <v>-3.5202454159896798E-2</v>
+      </c>
+      <c r="G75">
+        <v>1.1246097698813301E-2</v>
+      </c>
+      <c r="H75">
+        <v>9.9240774535714102E-2</v>
+      </c>
+      <c r="I75">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1831</v>
+      </c>
+      <c r="B76">
+        <v>5.3462646632420003E-3</v>
+      </c>
+      <c r="C76">
+        <v>-1.4539383544740299E-2</v>
+      </c>
+      <c r="D76">
+        <v>1.9541702269675599E-2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76">
+        <v>-1.7899732421097998E-2</v>
+      </c>
+      <c r="G76">
+        <v>-2.0963973507837001E-3</v>
+      </c>
+      <c r="H76">
+        <v>0.12145069454007799</v>
+      </c>
+      <c r="I76">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1832</v>
+      </c>
+      <c r="B77">
+        <v>8.2305949367341501E-5</v>
+      </c>
+      <c r="C77">
+        <v>-5.2263502142763001E-3</v>
+      </c>
+      <c r="D77">
+        <v>1.14519500284025E-2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77">
+        <v>-4.6443608063928402E-2</v>
+      </c>
+      <c r="G77">
+        <v>9.0577994841026001E-3</v>
+      </c>
+      <c r="H77">
+        <v>0.109246102760539</v>
+      </c>
+      <c r="I77">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1918</v>
+      </c>
+      <c r="B78">
+        <v>1.9007579953012001E-3</v>
+      </c>
+      <c r="C78">
+        <v>3.5466477884138E-3</v>
+      </c>
+      <c r="D78">
+        <v>-6.8382873696314003E-3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78">
+        <v>-1.33040895609173E-2</v>
+      </c>
+      <c r="G78">
+        <v>-5.5267734981524E-3</v>
+      </c>
+      <c r="H78">
+        <v>-0.12768791334004101</v>
+      </c>
+      <c r="I78">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1919</v>
+      </c>
+      <c r="B79">
+        <v>2.5873235649509002E-3</v>
+      </c>
+      <c r="C79">
+        <v>2.4893448669334002E-3</v>
+      </c>
+      <c r="D79">
+        <v>2.9289946651959E-3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79">
+        <v>-6.9283279381986002E-3</v>
+      </c>
+      <c r="G79">
+        <v>6.8053842220976001E-3</v>
+      </c>
+      <c r="H79">
+        <v>-1.21872616280779E-2</v>
+      </c>
+      <c r="I79">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1920</v>
+      </c>
+      <c r="B80">
+        <v>-2.1395549607087999E-3</v>
+      </c>
+      <c r="C80">
+        <v>-3.1514626737065999E-3</v>
+      </c>
+      <c r="D80">
+        <v>6.9506866015192001E-3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80">
+        <v>1.25620344286377E-2</v>
+      </c>
+      <c r="I80">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1921</v>
+      </c>
+      <c r="B81">
+        <v>-8.4287351408331001E-3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
